--- a/db/dummydata/easyshipping/pfc_import.xlsx
+++ b/db/dummydata/easyshipping/pfc_import.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="438">
   <si>
     <t>2018-06-14</t>
   </si>
@@ -21,23 +21,71 @@
   </si>
   <si>
     <t>Modul Transport A/S</t>
+  </si>
+  <si>
+    <t>Arab Gulf / Red Sea</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
   </si>
   <si>
     <t xml:space="preserve">Validity: 01.06.2018 -30.06.2018 
 </t>
   </si>
   <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CURR</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>MINIMUM</t>
+  </si>
+  <si>
+    <t>TRANSIT TIME</t>
+  </si>
+  <si>
+    <t>ROUTING</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>165,00</t>
+  </si>
+  <si>
+    <t>41 days</t>
+  </si>
+  <si>
+    <t>Via Dubai - RTM</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Aqaba</t>
+  </si>
+  <si>
+    <t>130,00</t>
+  </si>
+  <si>
+    <t>20 days</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 </t>
   </si>
   <si>
+    <t>Via RTM (Direct service)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valid from FOB load port to CFS Aarhus/Copenhagen All-in
 </t>
   </si>
   <si>
-    <t>Arab Gulf / Red Sea</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -46,12 +94,12 @@
 </t>
   </si>
   <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
     <t>If any questions pls contact us anytime.</t>
   </si>
   <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
     <t>General conditions IMPORT</t>
   </si>
   <si>
@@ -64,42 +112,18 @@
     <t>Minimum is one freight ton if not other mentioned.</t>
   </si>
   <si>
+    <t>185,00</t>
+  </si>
+  <si>
     <t>The rates are applicable for stackable and containerized cargo under 5.95 meter length.</t>
   </si>
   <si>
+    <t>40 days</t>
+  </si>
+  <si>
     <t>The local charges in AARHUS are presently:</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>CURR</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>MINIMUM</t>
-  </si>
-  <si>
-    <t>TRANSIT TIME</t>
-  </si>
-  <si>
-    <t>ROUTING</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>41 days</t>
-  </si>
-  <si>
-    <t>Via Dubai - RTM</t>
-  </si>
-  <si>
     <t>THC</t>
   </si>
   <si>
@@ -121,39 +145,15 @@
     <t>ISPS</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
     <t>Eventual customs clearance</t>
   </si>
   <si>
     <t>DKK .-</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Aqaba</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>20 days</t>
-  </si>
-  <si>
-    <t>Via RTM (Direct service)</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>185,00</t>
-  </si>
-  <si>
-    <t>40 days</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
     <t>Jeddah</t>
   </si>
   <si>
@@ -274,7 +274,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>Chang Su</t>
+    <t>Changsu</t>
   </si>
   <si>
     <t>109,00</t>
@@ -286,10 +286,10 @@
     <t>Via SHA - RTM</t>
   </si>
   <si>
-    <t>Chang Zhou</t>
-  </si>
-  <si>
-    <t>Chong Qing</t>
+    <t>Changzhou</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
   </si>
   <si>
     <t>139,00</t>
@@ -571,7 +571,7 @@
     <t>Russian Federation</t>
   </si>
   <si>
-    <t>Skt. Petersburg</t>
+    <t>St. Petersburg</t>
   </si>
   <si>
     <t>11 days</t>
@@ -583,7 +583,7 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t xml:space="preserve">Phnom Penh </t>
+    <t>Phnom Penh</t>
   </si>
   <si>
     <t>34 days</t>
@@ -658,7 +658,7 @@
     <t>Yokohama (Economy)</t>
   </si>
   <si>
-    <t>Korea (South)</t>
+    <t>South Korea</t>
   </si>
   <si>
     <t xml:space="preserve">Busan </t>
@@ -892,12 +892,15 @@
     <t>27 days</t>
   </si>
   <si>
-    <t>Mumbai / Nhava Sheva (Economy)</t>
+    <t>Mumbai (Economy)</t>
   </si>
   <si>
     <t>72,00</t>
   </si>
   <si>
+    <t>Nhava Sheva (Economy)</t>
+  </si>
+  <si>
     <t>New Delhi</t>
   </si>
   <si>
@@ -1066,7 +1069,7 @@
     <t xml:space="preserve">Charleston </t>
   </si>
   <si>
-    <t xml:space="preserve">Charlotte, NC </t>
+    <t>Charlotte</t>
   </si>
   <si>
     <t>Chicago</t>
@@ -1144,7 +1147,7 @@
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>San Antonio (USA)</t>
+    <t>San Antonio</t>
   </si>
   <si>
     <t>Tulsa</t>
@@ -1297,7 +1300,7 @@
     <t>Medelin</t>
   </si>
   <si>
-    <t>Costa Rica (Via Cartagena)</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>San Jose</t>
@@ -1371,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1386,6 +1389,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,7 +1493,7 @@
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1519,7 +1528,7 @@
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1532,22 +1541,22 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1555,22 +1564,22 @@
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1611,7 +1620,7 @@
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1624,22 +1633,22 @@
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1647,22 +1656,22 @@
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1703,7 +1712,7 @@
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1716,22 +1725,22 @@
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1739,22 +1748,22 @@
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1795,7 +1804,7 @@
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1808,22 +1817,22 @@
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1834,7 +1843,7 @@
         <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>46</v>
@@ -1843,10 +1852,10 @@
         <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1900,22 +1909,22 @@
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1926,7 +1935,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>49</v>
@@ -1938,7 +1947,7 @@
         <v>50</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2038,22 +2047,22 @@
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2064,7 +2073,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>54</v>
@@ -2087,7 +2096,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>58</v>
@@ -2110,7 +2119,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>61</v>
@@ -2133,7 +2142,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>65</v>
@@ -2156,13 +2165,13 @@
         <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>68</v>
@@ -2179,7 +2188,7 @@
         <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>61</v>
@@ -2202,13 +2211,13 @@
         <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>72</v>
@@ -2225,7 +2234,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>61</v>
@@ -2291,22 +2300,22 @@
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2317,7 +2326,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>76</v>
@@ -2340,7 +2349,7 @@
         <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>79</v>
@@ -2363,7 +2372,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>79</v>
@@ -2386,7 +2395,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>82</v>
@@ -2498,33 +2507,33 @@
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>86</v>
@@ -2543,11 +2552,11 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>86</v>
@@ -2566,11 +2575,11 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>91</v>
@@ -2593,7 +2602,7 @@
         <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>93</v>
@@ -2602,10 +2611,10 @@
         <v>93</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -2616,7 +2625,7 @@
         <v>94</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>95</v>
@@ -2639,7 +2648,7 @@
         <v>96</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>86</v>
@@ -2662,7 +2671,7 @@
         <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>95</v>
@@ -2671,7 +2680,7 @@
         <v>95</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>63</v>
@@ -2685,7 +2694,7 @@
         <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>100</v>
@@ -2708,7 +2717,7 @@
         <v>101</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>102</v>
@@ -2731,7 +2740,7 @@
         <v>104</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>100</v>
@@ -2754,7 +2763,7 @@
         <v>105</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>106</v>
@@ -2766,7 +2775,7 @@
         <v>107</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -2777,7 +2786,7 @@
         <v>108</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>109</v>
@@ -2800,7 +2809,7 @@
         <v>110</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>86</v>
@@ -2823,7 +2832,7 @@
         <v>111</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>86</v>
@@ -2846,7 +2855,7 @@
         <v>112</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>113</v>
@@ -2869,7 +2878,7 @@
         <v>115</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>116</v>
@@ -2881,7 +2890,7 @@
         <v>117</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2892,7 +2901,7 @@
         <v>118</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>86</v>
@@ -2915,7 +2924,7 @@
         <v>119</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
@@ -2938,7 +2947,7 @@
         <v>121</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>86</v>
@@ -2961,7 +2970,7 @@
         <v>122</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>123</v>
@@ -2984,7 +2993,7 @@
         <v>124</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>125</v>
@@ -3007,7 +3016,7 @@
         <v>126</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>127</v>
@@ -3030,7 +3039,7 @@
         <v>128</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>116</v>
@@ -3042,7 +3051,7 @@
         <v>50</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3053,7 +3062,7 @@
         <v>129</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>130</v>
@@ -3065,7 +3074,7 @@
         <v>107</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3076,7 +3085,7 @@
         <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>132</v>
@@ -3099,7 +3108,7 @@
         <v>133</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>134</v>
@@ -3122,7 +3131,7 @@
         <v>136</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>95</v>
@@ -3131,7 +3140,7 @@
         <v>95</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>63</v>
@@ -3145,7 +3154,7 @@
         <v>137</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>127</v>
@@ -3168,7 +3177,7 @@
         <v>138</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>139</v>
@@ -3180,7 +3189,7 @@
         <v>50</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -3191,7 +3200,7 @@
         <v>140</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>141</v>
@@ -3214,7 +3223,7 @@
         <v>142</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>143</v>
@@ -3237,7 +3246,7 @@
         <v>145</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>146</v>
@@ -3260,7 +3269,7 @@
         <v>147</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>148</v>
@@ -3283,7 +3292,7 @@
         <v>149</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>116</v>
@@ -3295,7 +3304,7 @@
         <v>150</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -3306,7 +3315,7 @@
         <v>151</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>141</v>
@@ -3329,7 +3338,7 @@
         <v>152</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>100</v>
@@ -3352,7 +3361,7 @@
         <v>153</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>125</v>
@@ -3375,7 +3384,7 @@
         <v>154</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>146</v>
@@ -3398,7 +3407,7 @@
         <v>155</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>132</v>
@@ -3421,7 +3430,7 @@
         <v>157</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>158</v>
@@ -3444,7 +3453,7 @@
         <v>159</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>123</v>
@@ -3467,7 +3476,7 @@
         <v>160</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>116</v>
@@ -3479,7 +3488,7 @@
         <v>50</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -3490,7 +3499,7 @@
         <v>161</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>132</v>
@@ -3513,7 +3522,7 @@
         <v>162</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>130</v>
@@ -3525,7 +3534,7 @@
         <v>68</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -3536,7 +3545,7 @@
         <v>163</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>120</v>
@@ -3559,7 +3568,7 @@
         <v>164</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>125</v>
@@ -3582,7 +3591,7 @@
         <v>165</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>125</v>
@@ -3605,7 +3614,7 @@
         <v>166</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>167</v>
@@ -3628,7 +3637,7 @@
         <v>168</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>169</v>
@@ -3651,7 +3660,7 @@
         <v>170</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>125</v>
@@ -3674,7 +3683,7 @@
         <v>171</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>172</v>
@@ -3697,7 +3706,7 @@
         <v>173</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>174</v>
@@ -3720,7 +3729,7 @@
         <v>175</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>176</v>
@@ -3743,7 +3752,7 @@
         <v>177</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>174</v>
@@ -3855,22 +3864,22 @@
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -3881,7 +3890,7 @@
         <v>180</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>181</v>
@@ -3893,7 +3902,7 @@
         <v>182</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -3947,33 +3956,33 @@
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>172</v>
@@ -3985,7 +3994,7 @@
         <v>185</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -4085,33 +4094,33 @@
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>146</v>
@@ -4134,7 +4143,7 @@
         <v>190</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>49</v>
@@ -4200,22 +4209,22 @@
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -4226,7 +4235,7 @@
         <v>192</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>65</v>
@@ -4249,7 +4258,7 @@
         <v>193</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>194</v>
@@ -4258,7 +4267,7 @@
         <v>194</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>56</v>
@@ -4272,7 +4281,7 @@
         <v>195</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>176</v>
@@ -4284,7 +4293,7 @@
         <v>50</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -4295,7 +4304,7 @@
         <v>196</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>120</v>
@@ -4304,7 +4313,7 @@
         <v>120</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>63</v>
@@ -4318,7 +4327,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>198</v>
@@ -4341,7 +4350,7 @@
         <v>199</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>198</v>
@@ -4364,7 +4373,7 @@
         <v>200</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>120</v>
@@ -4430,22 +4439,22 @@
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -4456,7 +4465,7 @@
         <v>202</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>203</v>
@@ -4479,7 +4488,7 @@
         <v>204</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>120</v>
@@ -4502,7 +4511,7 @@
         <v>205</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>203</v>
@@ -4525,7 +4534,7 @@
         <v>206</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>120</v>
@@ -4548,7 +4557,7 @@
         <v>207</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>203</v>
@@ -4571,7 +4580,7 @@
         <v>208</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>120</v>
@@ -4594,7 +4603,7 @@
         <v>209</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>203</v>
@@ -4617,7 +4626,7 @@
         <v>210</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>120</v>
@@ -4640,7 +4649,7 @@
         <v>211</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>203</v>
@@ -4663,7 +4672,7 @@
         <v>212</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>120</v>
@@ -4715,7 +4724,7 @@
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C180" s="1"/>
@@ -4729,22 +4738,22 @@
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -4755,7 +4764,7 @@
         <v>214</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>203</v>
@@ -4767,7 +4776,7 @@
         <v>66</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -4778,7 +4787,7 @@
         <v>215</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>216</v>
@@ -4801,7 +4810,7 @@
         <v>217</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>218</v>
@@ -4810,7 +4819,7 @@
         <v>218</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>135</v>
@@ -4824,7 +4833,7 @@
         <v>219</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>216</v>
@@ -4890,22 +4899,22 @@
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -4916,7 +4925,7 @@
         <v>221</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>222</v>
@@ -4939,7 +4948,7 @@
         <v>224</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>222</v>
@@ -4962,7 +4971,7 @@
         <v>225</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>139</v>
@@ -4971,7 +4980,7 @@
         <v>139</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>63</v>
@@ -4985,7 +4994,7 @@
         <v>226</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>227</v>
@@ -4997,7 +5006,7 @@
         <v>228</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -5008,7 +5017,7 @@
         <v>229</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>95</v>
@@ -5017,7 +5026,7 @@
         <v>95</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>63</v>
@@ -5074,22 +5083,22 @@
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -5100,7 +5109,7 @@
         <v>231</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>232</v>
@@ -5166,22 +5175,22 @@
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -5192,7 +5201,7 @@
         <v>235</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>236</v>
@@ -5258,22 +5267,22 @@
     <row r="212" ht="14.25" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -5284,7 +5293,7 @@
         <v>238</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>169</v>
@@ -5307,7 +5316,7 @@
         <v>239</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>169</v>
@@ -5330,7 +5339,7 @@
         <v>240</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>139</v>
@@ -5396,22 +5405,22 @@
     <row r="220" ht="14.25" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -5422,7 +5431,7 @@
         <v>242</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>243</v>
@@ -5434,7 +5443,7 @@
         <v>244</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -5445,7 +5454,7 @@
         <v>245</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>109</v>
@@ -5511,22 +5520,22 @@
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -5537,7 +5546,7 @@
         <v>247</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>248</v>
@@ -5549,7 +5558,7 @@
         <v>249</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -5560,7 +5569,7 @@
         <v>250</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>127</v>
@@ -5569,7 +5578,7 @@
         <v>127</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>114</v>
@@ -5583,7 +5592,7 @@
         <v>251</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>248</v>
@@ -5606,7 +5615,7 @@
         <v>253</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>254</v>
@@ -5615,7 +5624,7 @@
         <v>254</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>255</v>
@@ -5629,7 +5638,7 @@
         <v>256</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>248</v>
@@ -5652,7 +5661,7 @@
         <v>257</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>258</v>
@@ -5661,7 +5670,7 @@
         <v>258</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>255</v>
@@ -5675,7 +5684,7 @@
         <v>259</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>248</v>
@@ -5698,7 +5707,7 @@
         <v>260</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>132</v>
@@ -5707,7 +5716,7 @@
         <v>132</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>255</v>
@@ -5764,22 +5773,22 @@
     <row r="240" ht="14.25" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -5790,7 +5799,7 @@
         <v>262</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>263</v>
@@ -5802,7 +5811,7 @@
         <v>50</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -5813,7 +5822,7 @@
         <v>264</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>265</v>
@@ -5879,22 +5888,22 @@
     <row r="247" ht="14.25" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
@@ -5905,7 +5914,7 @@
         <v>267</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>268</v>
@@ -5928,7 +5937,7 @@
         <v>269</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>125</v>
@@ -5951,7 +5960,7 @@
         <v>270</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>139</v>
@@ -5974,7 +5983,7 @@
         <v>271</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>102</v>
@@ -5986,7 +5995,7 @@
         <v>249</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -5997,7 +6006,7 @@
         <v>272</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>174</v>
@@ -6109,22 +6118,22 @@
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
@@ -6135,7 +6144,7 @@
         <v>275</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>86</v>
@@ -6201,22 +6210,22 @@
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -6227,7 +6236,7 @@
         <v>277</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>65</v>
@@ -6250,7 +6259,7 @@
         <v>279</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>61</v>
@@ -6273,7 +6282,7 @@
         <v>281</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>123</v>
@@ -6285,7 +6294,7 @@
         <v>189</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -6296,7 +6305,7 @@
         <v>282</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>283</v>
@@ -6308,7 +6317,7 @@
         <v>77</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -6319,7 +6328,7 @@
         <v>284</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>236</v>
@@ -6328,7 +6337,7 @@
         <v>236</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>285</v>
@@ -6342,7 +6351,7 @@
         <v>286</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>158</v>
@@ -6365,7 +6374,7 @@
         <v>287</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>158</v>
@@ -6388,7 +6397,7 @@
         <v>288</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>268</v>
@@ -6400,7 +6409,7 @@
         <v>107</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
@@ -6411,7 +6420,7 @@
         <v>289</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>263</v>
@@ -6423,18 +6432,18 @@
         <v>290</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="1" t="s">
+      <c r="B277" s="5" t="s">
         <v>291</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>292</v>
@@ -6453,23 +6462,23 @@
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="1" t="s">
+      <c r="B278" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
@@ -6480,19 +6489,19 @@
         <v>294</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
@@ -6503,31 +6512,43 @@
         <v>295</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1"/>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
+      <c r="B281" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
@@ -6555,9 +6576,7 @@
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="3" t="s">
-        <v>296</v>
-      </c>
+      <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -6569,57 +6588,59 @@
     <row r="285" ht="14.25" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
       <c r="A286" s="1"/>
-      <c r="B286" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>40</v>
+      <c r="B286" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
       <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
+      <c r="B287" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
     </row>
@@ -6647,9 +6668,7 @@
     </row>
     <row r="290" ht="14.25" customHeight="1">
       <c r="A290" s="1"/>
-      <c r="B290" s="3" t="s">
-        <v>298</v>
-      </c>
+      <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -6661,57 +6680,59 @@
     <row r="291" ht="14.25" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
       <c r="A292" s="1"/>
-      <c r="B292" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F292" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>40</v>
+      <c r="B292" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
       <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
+      <c r="B293" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
     </row>
@@ -6750,9 +6771,7 @@
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="1"/>
-      <c r="B297" s="2" t="s">
-        <v>301</v>
-      </c>
+      <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -6763,7 +6782,9 @@
     </row>
     <row r="298" ht="14.25" customHeight="1">
       <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
+      <c r="B298" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -6785,9 +6806,7 @@
     </row>
     <row r="300" ht="14.25" customHeight="1">
       <c r="A300" s="1"/>
-      <c r="B300" s="3" t="s">
-        <v>302</v>
-      </c>
+      <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -6799,57 +6818,59 @@
     <row r="301" ht="14.25" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
       <c r="A302" s="1"/>
-      <c r="B302" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F302" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G302" s="1" t="s">
-        <v>40</v>
+      <c r="B302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
       <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
+      <c r="B303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
     </row>
@@ -6877,9 +6898,7 @@
     </row>
     <row r="306" ht="14.25" customHeight="1">
       <c r="A306" s="1"/>
-      <c r="B306" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -6891,45 +6910,35 @@
     <row r="307" ht="14.25" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F307" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G307" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="1"/>
-      <c r="B308" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F308" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>308</v>
+      <c r="B308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
@@ -6937,34 +6946,46 @@
     <row r="309" ht="14.25" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G309" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
       <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
-      <c r="G310" s="1"/>
+      <c r="B310" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
@@ -6992,9 +7013,7 @@
     </row>
     <row r="313" ht="14.25" customHeight="1">
       <c r="A313" s="1"/>
-      <c r="B313" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -7006,57 +7025,59 @@
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G314" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
       <c r="A315" s="1"/>
-      <c r="B315" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>40</v>
+      <c r="B315" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
+      <c r="B316" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
     </row>
@@ -7084,9 +7105,7 @@
     </row>
     <row r="319" ht="14.25" customHeight="1">
       <c r="A319" s="1"/>
-      <c r="B319" s="3" t="s">
-        <v>314</v>
-      </c>
+      <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -7098,57 +7117,59 @@
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G320" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
       <c r="A321" s="1"/>
-      <c r="B321" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G321" s="1" t="s">
-        <v>40</v>
+      <c r="B321" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
+      <c r="B322" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
@@ -7176,9 +7197,7 @@
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -7190,45 +7209,35 @@
     <row r="326" ht="14.25" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G326" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>40</v>
+      <c r="B327" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -7236,34 +7245,46 @@
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F328" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F328" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G328" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
+      <c r="B329" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
@@ -7302,9 +7323,7 @@
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="1"/>
-      <c r="B333" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -7315,7 +7334,9 @@
     </row>
     <row r="334" ht="14.25" customHeight="1">
       <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
+      <c r="B334" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -7337,9 +7358,7 @@
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="1"/>
-      <c r="B336" s="3" t="s">
-        <v>323</v>
-      </c>
+      <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -7351,45 +7370,35 @@
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F337" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G337" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="1"/>
-      <c r="B338" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>40</v>
+      <c r="B338" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
@@ -7397,22 +7406,22 @@
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C339" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E339" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
@@ -7420,34 +7429,46 @@
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F340" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
+      <c r="B341" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
     </row>
@@ -7475,9 +7496,7 @@
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="1"/>
-      <c r="B344" s="3" t="s">
-        <v>332</v>
-      </c>
+      <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -7489,45 +7508,35 @@
     <row r="345" ht="14.25" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G345" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="1"/>
-      <c r="B346" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>40</v>
+      <c r="B346" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
@@ -7538,31 +7547,43 @@
         <v>334</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
+      <c r="B348" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
@@ -7590,9 +7611,7 @@
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="1"/>
-      <c r="B351" s="3" t="s">
-        <v>335</v>
-      </c>
+      <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -7604,57 +7623,59 @@
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E352" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G352" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="1"/>
-      <c r="B353" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>40</v>
+      <c r="B353" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1"/>
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
+      <c r="B354" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
     </row>
@@ -7682,9 +7703,7 @@
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="1"/>
-      <c r="B357" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -7696,45 +7715,35 @@
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E358" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G358" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="1"/>
-      <c r="B359" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>340</v>
+      <c r="B359" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -7742,22 +7751,22 @@
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G360" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -7765,22 +7774,22 @@
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G361" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F361" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
@@ -7791,19 +7800,19 @@
         <v>345</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
@@ -7811,22 +7820,22 @@
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C363" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E363" s="1" t="s">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
@@ -7837,19 +7846,19 @@
         <v>348</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
@@ -7860,7 +7869,7 @@
         <v>349</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>158</v>
@@ -7869,33 +7878,33 @@
         <v>158</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="1"/>
-      <c r="B366" s="1" t="s">
+      <c r="B366" s="5" t="s">
         <v>350</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
@@ -7906,19 +7915,19 @@
         <v>351</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
@@ -7926,22 +7935,22 @@
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F368" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C368" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="G368" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
@@ -7949,22 +7958,22 @@
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C369" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E369" s="1" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
@@ -7975,19 +7984,19 @@
         <v>356</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
@@ -7998,19 +8007,19 @@
         <v>357</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
@@ -8018,22 +8027,22 @@
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C372" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D372" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E372" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
@@ -8041,22 +8050,22 @@
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C373" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E373" s="1" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
@@ -8067,19 +8076,19 @@
         <v>362</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
@@ -8087,22 +8096,22 @@
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C375" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D375" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E375" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
@@ -8110,22 +8119,22 @@
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D376" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C376" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D376" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E376" s="1" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
@@ -8136,19 +8145,19 @@
         <v>367</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
@@ -8156,22 +8165,22 @@
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D378" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C378" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E378" s="1" t="s">
-        <v>95</v>
+        <v>369</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>40</v>
+        <v>344</v>
       </c>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
@@ -8182,19 +8191,19 @@
         <v>370</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>371</v>
+        <v>95</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>340</v>
+        <v>21</v>
       </c>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -8202,22 +8211,22 @@
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D380" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E380" s="1" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -8228,19 +8237,19 @@
         <v>373</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -8251,19 +8260,19 @@
         <v>374</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>172</v>
+        <v>347</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>172</v>
+        <v>347</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -8274,54 +8283,66 @@
         <v>375</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="1"/>
-      <c r="B384" s="1" t="s">
+      <c r="B384" s="5" t="s">
         <v>376</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
+      <c r="B385" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
     </row>
@@ -8360,9 +8381,7 @@
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="1"/>
-      <c r="B389" s="2" t="s">
-        <v>378</v>
-      </c>
+      <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -8373,7 +8392,9 @@
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
+      <c r="B390" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -8395,9 +8416,7 @@
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="1"/>
-      <c r="B392" s="3" t="s">
-        <v>378</v>
-      </c>
+      <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -8409,45 +8428,35 @@
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="1"/>
-      <c r="B394" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F394" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G394" s="1" t="s">
-        <v>40</v>
+      <c r="B394" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
@@ -8455,22 +8464,22 @@
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F395" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C395" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F395" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="G395" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
@@ -8481,31 +8490,43 @@
         <v>383</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>384</v>
+        <v>21</v>
       </c>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-      <c r="D397" s="1"/>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
-      <c r="G397" s="1"/>
+      <c r="B397" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
     </row>
@@ -8544,9 +8565,7 @@
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="1"/>
-      <c r="B401" s="2" t="s">
-        <v>385</v>
-      </c>
+      <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -8557,7 +8576,9 @@
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
+      <c r="B402" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -8579,9 +8600,7 @@
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="1"/>
-      <c r="B404" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -8593,45 +8612,35 @@
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="1"/>
-      <c r="B406" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F406" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>40</v>
+      <c r="B406" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
@@ -8642,19 +8651,19 @@
         <v>388</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>389</v>
+        <v>58</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>389</v>
+        <v>58</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>390</v>
+        <v>21</v>
       </c>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
@@ -8662,22 +8671,22 @@
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G408" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F408" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -8685,34 +8694,46 @@
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G409" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E409" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="1"/>
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-      <c r="D410" s="1"/>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
+      <c r="B410" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
     </row>
@@ -8740,9 +8761,7 @@
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="1"/>
-      <c r="B413" s="3" t="s">
-        <v>395</v>
-      </c>
+      <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -8754,45 +8773,35 @@
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E414" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F414" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="1"/>
-      <c r="B415" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D415" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G415" s="1" t="s">
-        <v>398</v>
+      <c r="B415" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -8800,22 +8809,22 @@
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G416" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D416" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E416" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F416" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G416" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -8823,34 +8832,46 @@
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C417" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="E417" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-      <c r="D418" s="1"/>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
+      <c r="B418" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
     </row>
@@ -8878,9 +8899,7 @@
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="1"/>
-      <c r="B421" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -8892,45 +8911,35 @@
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E422" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F422" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G422" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+      <c r="F422" s="1"/>
+      <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="1"/>
-      <c r="B423" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G423" s="1" t="s">
-        <v>405</v>
+      <c r="B423" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
@@ -8938,22 +8947,22 @@
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G424" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E424" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F424" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G424" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
@@ -8961,22 +8970,22 @@
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D425" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E425" s="1" t="s">
-        <v>268</v>
+        <v>408</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>244</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
@@ -8987,19 +8996,19 @@
         <v>409</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
@@ -9010,19 +9019,19 @@
         <v>410</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>407</v>
+        <v>86</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>407</v>
+        <v>86</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
@@ -9033,19 +9042,19 @@
         <v>411</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>86</v>
+        <v>408</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
@@ -9056,7 +9065,7 @@
         <v>412</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>86</v>
@@ -9065,10 +9074,10 @@
         <v>86</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
@@ -9079,31 +9088,43 @@
         <v>413</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
-      <c r="G431" s="1"/>
+      <c r="B431" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
     </row>
@@ -9131,9 +9152,7 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="1"/>
-      <c r="B434" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -9145,57 +9164,59 @@
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E435" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F435" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+      <c r="E435" s="1"/>
+      <c r="F435" s="1"/>
+      <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="1"/>
-      <c r="B436" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E436" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G436" s="1" t="s">
-        <v>40</v>
+      <c r="B436" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
-      <c r="D437" s="1"/>
-      <c r="E437" s="1"/>
-      <c r="F437" s="1"/>
-      <c r="G437" s="1"/>
+      <c r="B437" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
     </row>
@@ -9223,9 +9244,7 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="1"/>
-      <c r="B440" s="3" t="s">
-        <v>416</v>
-      </c>
+      <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -9237,45 +9256,35 @@
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C441" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F441" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G441" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+      <c r="G441" s="1"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="1"/>
-      <c r="B442" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D442" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E442" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F442" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G442" s="1" t="s">
-        <v>419</v>
+      <c r="B442" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
@@ -9283,22 +9292,22 @@
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
@@ -9306,22 +9315,22 @@
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C444" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="E444" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>290</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
@@ -9329,22 +9338,22 @@
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C445" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D445" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E445" s="1" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
@@ -9355,31 +9364,43 @@
         <v>425</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
-      <c r="D447" s="1"/>
-      <c r="E447" s="1"/>
-      <c r="F447" s="1"/>
-      <c r="G447" s="1"/>
+      <c r="B447" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
     </row>
@@ -9407,9 +9428,7 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="1"/>
-      <c r="B450" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -9420,58 +9439,60 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="1"/>
-      <c r="B451" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E451" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F451" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G451" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B451" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+      <c r="E451" s="1"/>
+      <c r="F451" s="1"/>
+      <c r="G451" s="1"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="1"/>
-      <c r="B452" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F452" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G452" s="1" t="s">
-        <v>419</v>
+      <c r="B452" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="1"/>
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
-      <c r="D453" s="1"/>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
-      <c r="G453" s="1"/>
+      <c r="B453" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
     </row>
@@ -9499,9 +9520,7 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="1"/>
-      <c r="B456" s="3" t="s">
-        <v>428</v>
-      </c>
+      <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -9513,57 +9532,59 @@
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E457" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F457" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G457" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="1"/>
-      <c r="B458" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F458" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G458" s="1" t="s">
-        <v>40</v>
+      <c r="B458" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="1"/>
-      <c r="B459" s="1"/>
-      <c r="C459" s="1"/>
-      <c r="D459" s="1"/>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
-      <c r="G459" s="1"/>
+      <c r="B459" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
     </row>
@@ -9591,9 +9612,7 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="1"/>
-      <c r="B462" s="3" t="s">
-        <v>430</v>
-      </c>
+      <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -9605,57 +9624,59 @@
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E463" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F463" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G463" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="1"/>
-      <c r="B464" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G464" s="1" t="s">
-        <v>432</v>
+      <c r="B464" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="1"/>
-      <c r="B465" s="1"/>
-      <c r="C465" s="1"/>
-      <c r="D465" s="1"/>
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
-      <c r="G465" s="1"/>
+      <c r="B465" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
     </row>
@@ -9683,9 +9704,7 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="1"/>
-      <c r="B468" s="3" t="s">
-        <v>433</v>
-      </c>
+      <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -9697,57 +9716,59 @@
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E469" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F469" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G469" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+      <c r="E469" s="1"/>
+      <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="1"/>
-      <c r="B470" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G470" s="1" t="s">
-        <v>40</v>
+      <c r="B470" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="1"/>
-      <c r="B471" s="1"/>
-      <c r="C471" s="1"/>
-      <c r="D471" s="1"/>
-      <c r="E471" s="1"/>
-      <c r="F471" s="1"/>
-      <c r="G471" s="1"/>
+      <c r="B471" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
     </row>
@@ -9775,9 +9796,7 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="1"/>
-      <c r="B474" s="3" t="s">
-        <v>435</v>
-      </c>
+      <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -9789,57 +9808,59 @@
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C475" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E475" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F475" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G475" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+      <c r="E475" s="1"/>
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="1"/>
-      <c r="B476" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F476" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G476" s="1" t="s">
-        <v>40</v>
+      <c r="B476" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="1"/>
-      <c r="B477" s="1"/>
-      <c r="C477" s="1"/>
-      <c r="D477" s="1"/>
-      <c r="E477" s="1"/>
-      <c r="F477" s="1"/>
-      <c r="G477" s="1"/>
+      <c r="B477" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
     </row>
@@ -15595,6 +15616,17 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
       <c r="I1000" s="1"/>
+    </row>
+    <row r="1001" ht="14.25" customHeight="1">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -15643,37 +15675,37 @@
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
@@ -15682,75 +15714,75 @@
     <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1"/>
